--- a/xlsx/甲醇_intext.xlsx
+++ b/xlsx/甲醇_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="535">
   <si>
     <t>甲醇</t>
   </si>
@@ -29,7 +29,7 @@
     <t>IUPAC命名法</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_甲醇</t>
+    <t>政策_政策_混合动力车辆_甲醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CAS%E5%8F%B7</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%81%B6%E6%A5%B5%E5%AD%90</t>
   </si>
   <si>
-    <t>偶極子</t>
+    <t>偶极子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%9C</t>
@@ -197,13 +197,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E7%A4%BA%E6%80%A7%E8%B3%AA%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>警示性質標準詞列表</t>
+    <t>警示性质标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%85%A8%E5%BB%BA%E8%AD%B0%E6%A8%99%E6%BA%96%E8%A9%9E%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>安全建議標準詞列表</t>
+    <t>安全建议标准词列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFPA_704</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%86%E7%82%B8%E6%A5%B5%E9%99%90</t>
   </si>
   <si>
-    <t>爆炸極限</t>
+    <t>爆炸极限</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%87</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AB</t>
   </si>
   <si>
-    <t>氫</t>
+    <t>氢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%AE%E7%99%BC%E6%80%A7</t>
   </si>
   <si>
-    <t>揮發性</t>
+    <t>挥发性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>顏色</t>
+    <t>颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E7%89%A9</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%B6%E5%8A%91</t>
   </si>
   <si>
-    <t>溶劑</t>
+    <t>溶剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E5%86%BB%E5%89%82</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%85%AF%E4%BA%A4%E6%8F%9B%E5%8F%8D%E6%87%89</t>
   </si>
   <si>
-    <t>酯交換反應</t>
+    <t>酯交换反应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%9F%B4%E6%B2%B9</t>
@@ -383,25 +383,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%BC%E5%82%B7</t>
   </si>
   <si>
-    <t>灼傷</t>
+    <t>灼伤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%8F%8C</t>
   </si>
   <si>
-    <t>細菌</t>
+    <t>细菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>厭氧生物</t>
+    <t>厌氧生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%99%B3%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>新陳代謝</t>
+    <t>新陈代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A7%E5%8C%96</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E9%AB%94%E4%BF%9D%E5%AD%98%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>遺體保存技術</t>
+    <t>遗体保存技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E6%B3%A2%E4%B9%89%E8%80%B3</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%93-%E5%B7%B4%E8%92%82%E6%96%AF%E7%89%B9%C2%B7%E6%9D%9C%E9%A6%AC</t>
   </si>
   <si>
-    <t>讓-巴蒂斯特·杜馬</t>
+    <t>让-巴蒂斯特·杜马</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Eugene_Peligot</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%93%E7%91%9E%E7%88%BE%E6%B2%B3%E5%B2%B8%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>卓瑞爾河岸天文台</t>
+    <t>卓瑞尔河岸天文台</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/MERLIN</t>
@@ -491,19 +491,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%95%E6%B2%B9</t>
   </si>
   <si>
-    <t>輕油</t>
+    <t>轻油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E5%8C%96%E5%8A%91</t>
   </si>
   <si>
-    <t>催化劑</t>
+    <t>催化剂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A8</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E7%9B%B8%E8%89%B2%E8%AD%9C%E6%B3%95-%E8%B3%AA%E8%AD%9C%E8%81%AF%E7%94%A8</t>
   </si>
   <si>
-    <t>液相色譜法-質譜聯用</t>
+    <t>液相色谱法-质谱联用</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%9B</t>
@@ -599,13 +599,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E8%B3%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>印第賽車</t>
+    <t>印第赛车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E7%8D%B8%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>怪獸卡車</t>
+    <t>怪兽卡车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Automobile_Club</t>
@@ -629,9 +629,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E6%80%A7%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>變性乙醇</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
@@ -641,7 +638,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A6%81%E9%85%92%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>禁酒時期</t>
+    <t>禁酒时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%98%8E</t>
@@ -653,9 +650,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%B6%E5%89%82</t>
   </si>
   <si>
-    <t>溶剂</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E9%81%93</t>
   </si>
   <si>
@@ -665,9 +659,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E5%87%8D%E5%8A%91</t>
   </si>
   <si>
-    <t>防凍劑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E6%8C%A1%E6%B6%B2</t>
   </si>
   <si>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>燃料電池</t>
+    <t>燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E7%94%B2%E9%86%87%E7%87%83%E6%96%99%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>直接甲醇燃料電池</t>
+    <t>直接甲醇燃料电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%85%B8</t>
@@ -707,7 +698,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E7%A5%9E%E7%B6%93</t>
   </si>
   <si>
-    <t>視神經</t>
+    <t>视神经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E8%B7%B3</t>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E7%97%9B</t>
   </si>
   <si>
-    <t>頭痛</t>
+    <t>头痛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%91%BC%E5%90%B8</t>
@@ -749,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%85%8E%E8%A1%B0%E7%AB%AD</t>
   </si>
   <si>
-    <t>腎衰竭</t>
+    <t>肾衰竭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1</t>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%B7%B1%E9%86%87</t>
   </si>
   <si>
-    <t>環己醇</t>
+    <t>环己醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%94%E9%86%87</t>
@@ -1031,13 +1022,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
+    <t>生物化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%87%E9%A1%9E%E4%BC%BC%E7%89%A9</t>
   </si>
   <si>
-    <t>醇類似物</t>
+    <t>醇类似物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%9F%E5%9F%BA</t>
@@ -1169,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%99%E9%86%87</t>
   </si>
   <si>
-    <t>釙醇</t>
+    <t>钋醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%9A</t>
@@ -1289,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E9%BA%A5%E8%8A%BD%E9%85%AE%E7%B3%96%E9%86%87</t>
   </si>
   <si>
-    <t>異麥芽酮糖醇</t>
+    <t>异麦芽酮糖醇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Maltotriitol</t>
@@ -1349,7 +1340,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99%E6%BC%BF%E7%94%A8%E6%9C%A8%E6%9D%90</t>
   </si>
   <si>
-    <t>紙漿用木材</t>
+    <t>纸浆用木材</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%95%E6%9C%A8</t>
@@ -1367,7 +1358,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%84%E6%9C%A8%E7%B4%B0%E5%B7%A5</t>
   </si>
   <si>
-    <t>寄木細工</t>
+    <t>寄木细工</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wood_shingle</t>
@@ -1415,13 +1406,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%90%88%E6%9D%BF</t>
   </si>
   <si>
-    <t>膠合板</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%81</t>
   </si>
   <si>
-    <t>檁</t>
+    <t>檩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A1%81%E6%9E%B6_(%E5%B7%A5%E7%A8%8B)</t>
@@ -1475,13 +1463,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E9%80%9A%E7%B4%99</t>
   </si>
   <si>
-    <t>瓦通紙</t>
+    <t>瓦通纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%99</t>
   </si>
   <si>
-    <t>紙</t>
+    <t>纸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paperboard</t>
@@ -1499,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AB%98%E7%B8%88</t>
   </si>
   <si>
-    <t>嫘縈</t>
+    <t>嫘萦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A4%E7%BB%B4%E7%B4%A0</t>
@@ -1517,19 +1505,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E8%B3%AA%E7%B4%A0</t>
   </si>
   <si>
-    <t>木質素</t>
+    <t>木质素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9E%A3%E8%B3%AA</t>
   </si>
   <si>
-    <t>鞣質</t>
+    <t>鞣质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E7%85%A4%E6%B0%94</t>
@@ -1541,7 +1529,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%AF%E7%94%A2%E5%93%81</t>
   </si>
   <si>
-    <t>副產品</t>
+    <t>副产品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -1589,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E7%B4%99%E8%A1%93</t>
   </si>
   <si>
-    <t>造紙術</t>
+    <t>造纸术</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Wood_preservation</t>
@@ -1613,7 +1601,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1631,7 +1619,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2730,7 +2718,7 @@
         <v>50</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -3948,7 +3936,7 @@
         <v>120</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -3977,7 +3965,7 @@
         <v>96</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -4006,7 +3994,7 @@
         <v>46</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -5221,7 +5209,7 @@
         <v>203</v>
       </c>
       <c r="F112" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5247,10 +5235,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>204</v>
+      </c>
+      <c r="F113" t="s">
         <v>205</v>
-      </c>
-      <c r="F113" t="s">
-        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5276,10 +5264,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>206</v>
+      </c>
+      <c r="F114" t="s">
         <v>207</v>
-      </c>
-      <c r="F114" t="s">
-        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5305,10 +5293,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>208</v>
+      </c>
+      <c r="F115" t="s">
         <v>209</v>
-      </c>
-      <c r="F115" t="s">
-        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5334,10 +5322,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F116" t="s">
-        <v>212</v>
+        <v>108</v>
       </c>
       <c r="G116" t="n">
         <v>4</v>
@@ -5363,10 +5351,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F117" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5392,10 +5380,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F118" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5421,10 +5409,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F119" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5450,10 +5438,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F120" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -5479,10 +5467,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F121" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5508,10 +5496,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F122" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5537,10 +5525,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5566,10 +5554,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>208</v>
+      </c>
+      <c r="F124" t="s">
         <v>209</v>
-      </c>
-      <c r="F124" t="s">
-        <v>210</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -5595,10 +5583,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F125" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5624,10 +5612,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G126" t="n">
         <v>3</v>
@@ -5653,10 +5641,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F127" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5682,10 +5670,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5711,10 +5699,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F129" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5740,10 +5728,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F130" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5769,10 +5757,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F131" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5798,10 +5786,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F132" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5827,10 +5815,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F133" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5856,10 +5844,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F134" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5885,10 +5873,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F135" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G135" t="n">
         <v>5</v>
@@ -5914,10 +5902,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F136" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G136" t="n">
         <v>5</v>
@@ -5943,10 +5931,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F137" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5972,10 +5960,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F138" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6001,10 +5989,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G139" t="n">
         <v>13</v>
@@ -6030,10 +6018,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6059,10 +6047,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F141" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G141" t="n">
         <v>3</v>
@@ -6088,10 +6076,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F142" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6117,10 +6105,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F143" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6146,10 +6134,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6178,7 +6166,7 @@
         <v>203</v>
       </c>
       <c r="F145" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6233,10 +6221,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F147" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G147" t="n">
         <v>8</v>
@@ -6262,10 +6250,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F148" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6291,10 +6279,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F149" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6320,10 +6308,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F150" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6349,10 +6337,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F151" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6378,10 +6366,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6407,10 +6395,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6436,10 +6424,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6465,10 +6453,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F155" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6494,10 +6482,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F156" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6523,10 +6511,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6552,10 +6540,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6581,10 +6569,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F159" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6610,10 +6598,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F160" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6639,10 +6627,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F161" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6668,10 +6656,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F162" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6697,10 +6685,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F163" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6726,10 +6714,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6755,10 +6743,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F165" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6784,10 +6772,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F166" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6813,10 +6801,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F167" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6842,10 +6830,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F168" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6871,10 +6859,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F169" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6900,10 +6888,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -6929,10 +6917,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F171" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6958,10 +6946,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F172" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6987,10 +6975,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F173" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7016,10 +7004,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F174" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7045,10 +7033,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7074,10 +7062,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F176" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7103,10 +7091,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7132,10 +7120,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F178" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7161,10 +7149,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F179" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7190,10 +7178,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F180" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7219,10 +7207,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7248,10 +7236,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7277,10 +7265,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G183" t="n">
         <v>2</v>
@@ -7306,10 +7294,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -7335,10 +7323,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7364,10 +7352,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7393,10 +7381,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7422,10 +7410,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7451,10 +7439,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7480,10 +7468,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G190" t="n">
         <v>7</v>
@@ -7509,10 +7497,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7538,10 +7526,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7567,10 +7555,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7596,10 +7584,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7625,10 +7613,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7654,10 +7642,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7683,10 +7671,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G197" t="n">
         <v>6</v>
@@ -7712,10 +7700,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7741,10 +7729,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7770,10 +7758,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7799,10 +7787,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7828,10 +7816,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7857,10 +7845,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G203" t="n">
         <v>5</v>
@@ -7886,10 +7874,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7915,10 +7903,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7944,10 +7932,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7973,10 +7961,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8002,10 +7990,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G208" t="n">
         <v>4</v>
@@ -8031,10 +8019,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8060,10 +8048,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G210" t="n">
         <v>24</v>
@@ -8089,10 +8077,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8118,10 +8106,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8147,10 +8135,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8176,10 +8164,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8205,10 +8193,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8234,10 +8222,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8263,10 +8251,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8292,10 +8280,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8321,10 +8309,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8350,10 +8338,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8379,10 +8367,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8408,10 +8396,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8437,10 +8425,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8466,10 +8454,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8495,10 +8483,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G225" t="n">
         <v>2</v>
@@ -8524,10 +8512,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8553,10 +8541,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8582,10 +8570,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8611,10 +8599,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8640,10 +8628,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -8669,10 +8657,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8698,10 +8686,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8727,10 +8715,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8756,10 +8744,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8785,10 +8773,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8814,10 +8802,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8843,10 +8831,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8872,10 +8860,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8901,10 +8889,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8930,10 +8918,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8959,10 +8947,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8988,10 +8976,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9017,10 +9005,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9046,10 +9034,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9075,10 +9063,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F245" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9104,10 +9092,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F246" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9133,10 +9121,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F247" t="s">
-        <v>466</v>
+        <v>176</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9162,10 +9150,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F248" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9191,10 +9179,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F249" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9220,10 +9208,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F250" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9249,10 +9237,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F251" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9278,10 +9266,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F252" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9307,10 +9295,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F253" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9336,10 +9324,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F254" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9365,10 +9353,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F255" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G255" t="n">
         <v>4</v>
@@ -9394,10 +9382,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F256" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9423,10 +9411,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F257" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9452,10 +9440,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F258" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -9481,10 +9469,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F259" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9510,10 +9498,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F260" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9539,10 +9527,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F261" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9568,10 +9556,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F262" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G262" t="n">
         <v>3</v>
@@ -9597,10 +9585,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F263" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9626,10 +9614,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F264" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9655,10 +9643,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9684,10 +9672,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F266" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9713,10 +9701,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F267" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9742,10 +9730,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F268" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9771,10 +9759,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F269" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9800,10 +9788,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F270" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9829,10 +9817,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F271" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9858,10 +9846,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F272" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -9887,10 +9875,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F273" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -9916,10 +9904,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F274" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -9945,10 +9933,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F275" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -9974,10 +9962,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F276" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10003,10 +9991,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F277" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10032,10 +10020,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F278" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10061,10 +10049,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F279" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10090,10 +10078,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F280" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G280" t="n">
         <v>3</v>
@@ -10119,10 +10107,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F281" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10148,10 +10136,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F282" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10177,10 +10165,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F283" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
